--- a/example-input/GSE75140.xlsx
+++ b/example-input/GSE75140.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25940" windowHeight="16160" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="25940" windowHeight="16160" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="project" sheetId="1" r:id="rId1"/>
@@ -332,15 +332,9 @@
     <t>number</t>
   </si>
   <si>
-    <t>read1</t>
-  </si>
-  <si>
     <t>SRR2967608_1.fastq.gz</t>
   </si>
   <si>
-    <t>read2</t>
-  </si>
-  <si>
     <t>SRR2967608_2.fastq.gz</t>
   </si>
   <si>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t>is_living</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
   </si>
 </sst>
 </file>
@@ -828,7 +828,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1">
         <v>26644564</v>
@@ -1117,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1138,7 +1138,7 @@
         <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
         <v>13</v>
@@ -1180,18 +1180,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="15" max="15" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" customWidth="1"/>
+    <col min="15" max="15" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1201,44 +1210,44 @@
       <c r="C1" t="s">
         <v>76</v>
       </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="M1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O1" t="s">
-        <v>94</v>
-      </c>
-      <c r="P1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1248,41 +1257,41 @@
       <c r="C2" t="s">
         <v>77</v>
       </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1294,8 +1303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1308,10 +1317,10 @@
         <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1322,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" t="s">
         <v>99</v>
-      </c>
-      <c r="D2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1365,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -1364,7 +1373,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
